--- a/02.시스템기획/99.data/[실습_09]20200120_system_design_table_skill_ver0.2.xlsx
+++ b/02.시스템기획/99.data/[실습_09]20200120_system_design_table_skill_ver0.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="NPC_table_master" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="382">
   <si>
     <t>common_dmg_min</t>
   </si>
@@ -1684,6 +1684,14 @@
     <t xml:space="preserve">재사용시간:(sec)
 0:없음
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result_item_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2098,67 +2106,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -3439,7 +3387,7 @@
   <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E17" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
       <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
@@ -5298,7 +5246,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E3:N125">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5311,11 +5259,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E36" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="U42" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C56" sqref="C56"/>
+      <selection pane="bottomRight" activeCell="AE15" sqref="AE15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -10411,67 +10359,67 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E3:W23 E27:W27 Y27:Z27 Y3:Z23 AB3:AC23 AB27:AC47 Y57:Z66 E57:W66 E28:U47 E54:U56 AB54:AC66">
-    <cfRule type="cellIs" dxfId="18" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:W26 Y24:Z26 AB24:AC26">
-    <cfRule type="cellIs" dxfId="17" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3:X23 X27 X57:X66">
-    <cfRule type="cellIs" dxfId="16" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X24:X26">
-    <cfRule type="cellIs" dxfId="15" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA27 AA3:AA23 AA57:AA66">
-    <cfRule type="cellIs" dxfId="14" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA24:AA26">
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V28:W47 Y28:Z47 Y54:Z56 V54:W56">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X28:X47 X54:X56">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA28:AA47 AA54:AA56">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB48:AC53 E48:U53">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V48:W53 Y48:Z53">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X48:X53">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA48:AA53">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11002,10 +10950,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J15"/>
+  <dimension ref="B1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -11019,11 +10967,12 @@
     <col min="8" max="8" width="14.375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="11" max="11" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="12.75" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" s="13" customFormat="1" ht="84" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" s="13" customFormat="1" ht="84" x14ac:dyDescent="0.3">
       <c r="B2" s="15"/>
       <c r="C2" s="21" t="s">
         <v>231</v>
@@ -11049,8 +10998,11 @@
       <c r="J2" s="23" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K2" s="23" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="26" t="s">
         <v>35</v>
       </c>
@@ -11078,8 +11030,11 @@
       <c r="J3" s="27" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K3" s="27" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="16">
         <v>1</v>
       </c>
@@ -11107,8 +11062,11 @@
       <c r="J4" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K4" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="16">
         <v>2</v>
       </c>
@@ -11136,8 +11094,11 @@
       <c r="J5" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K5" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="16">
         <v>3</v>
       </c>
@@ -11165,8 +11126,11 @@
       <c r="J6" s="17">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K6" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="16">
         <v>4</v>
       </c>
@@ -11194,8 +11158,11 @@
       <c r="J7" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K7" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="16">
         <v>5</v>
       </c>
@@ -11223,8 +11190,11 @@
       <c r="J8" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K8" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="16">
         <v>6</v>
       </c>
@@ -11252,8 +11222,11 @@
       <c r="J9" s="17">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K9" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="16">
         <v>7</v>
       </c>
@@ -11281,8 +11254,11 @@
       <c r="J10" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K10" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="16">
         <v>8</v>
       </c>
@@ -11310,8 +11286,11 @@
       <c r="J11" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K11" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="16">
         <v>9</v>
       </c>
@@ -11339,8 +11318,11 @@
       <c r="J12" s="17">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K12" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="16">
         <v>10</v>
       </c>
@@ -11368,8 +11350,11 @@
       <c r="J13" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K13" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="16">
         <v>11</v>
       </c>
@@ -11397,8 +11382,11 @@
       <c r="J14" s="17">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K14" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <v>12</v>
       </c>
@@ -11424,12 +11412,16 @@
         <v>202</v>
       </c>
       <c r="J15" s="20">
+        <v>20</v>
+      </c>
+      <c r="K15" s="20">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/02.시스템기획/99.data/[실습_09]20200120_system_design_table_skill_ver0.2.xlsx
+++ b/02.시스템기획/99.data/[실습_09]20200120_system_design_table_skill_ver0.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="NPC_table_master" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="393">
   <si>
     <t>common_dmg_min</t>
   </si>
@@ -501,14 +501,6 @@
   <si>
     <t>광역공격
 damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>starving_decrease</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp_increase</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -694,10 +686,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stamina_increase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>배고픔감소:
 (%)
 0:효과없음</t>
@@ -1481,14 +1469,220 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">스킬사용타입
-01: active
-02: passive
+    <t>skill_use_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테미너감소:
+(%)
+0: 효과없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배고픔증가:
+(%)
+0:효과없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack_range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유효거리:
+소수점(m)
+0:없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack_interval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격속도:
+공격간 인터벌
+소수점(sec)
+0: 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poison_eff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제작그룹아이디:
+제작재료참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹아이디:
+수집아이템참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중독회복:
+0:효과없음
+1:출혈회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출혈회복:
+0:효과없음
+1:출혈회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기절회복:
+0:효과없음
+1:출혈회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중독효과:
+0: 없음
+1: 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출혈효과:
+0: 없음
+1: 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기절효과:
+0:없음
+1:있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resource_icon_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_group_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_item_ratio01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_item_ratio02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_item_ratio03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_get_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect_type01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eff_range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stun_eff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blood_eff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태치료_중독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_cooltime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">재사용시간:(sec)
+0:없음
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>skill_use_type</t>
+    <t>결과아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result_item_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>att_int_increase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>att_hp_increase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>att_stamina_increase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>att_stamina_decrease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>att_starving_decrease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>att_starving_increase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>att_detect_range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타_탐색</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1501,197 +1695,49 @@
 06: 회복스킬
 07: 휴식스킬
 08: 잠자기
+09: 탐색
 99: 부활
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stamina_decrease</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테미너감소:
-(%)
-0: 효과없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>starving_increase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배고픔증가:
-(%)
-0:효과없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack_range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유효거리:
-소수점(m)
-0:없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack_interval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격속도:
-공격간 인터벌
-소수점(sec)
-0: 없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>poison_eff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제작그룹아이디:
-제작재료참조</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그룹아이디:
-수집아이템참조</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중독회복:
-0:효과없음
-1:출혈회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출혈회복:
-0:효과없음
-1:출혈회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기절회복:
-0:효과없음
-1:출혈회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중독효과:
-0: 없음
-1: 있음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출혈효과:
-0: 없음
-1: 있음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기절효과:
-0:없음
-1:있음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resource_icon_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>product_group_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c_item_ratio01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c_item_ratio02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c_item_ratio03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_get_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect_type01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eff_range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stun_eff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blood_eff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상태치료_중독</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_cooltime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">재사용시간:(sec)
-0:없음
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결과아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result_item_id</t>
+    <t>탐색범위증가량(m)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생존지능증가:
+point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬사용타입
+01: active
+02: passive
+03: special</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버섯죽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복분자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기력회복제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠크리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2563,7 +2609,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="246" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>68</v>
@@ -2575,10 +2621,10 @@
         <v>19</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>70</v>
@@ -3125,7 +3171,7 @@
         <v>46</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>47</v>
@@ -3140,7 +3186,7 @@
         <v>50</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>51</v>
@@ -3190,7 +3236,7 @@
         <v>2</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -3387,10 +3433,10 @@
   <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E11" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3413,16 +3459,16 @@
     <row r="1" spans="1:14" ht="132" x14ac:dyDescent="0.2">
       <c r="B1" s="14"/>
       <c r="C1" s="36" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G1" s="38" t="s">
         <v>96</v>
@@ -3434,16 +3480,16 @@
         <v>98</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="K1" s="37" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L1" s="37" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="M1" s="37" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N1" s="39" t="s">
         <v>103</v>
@@ -3451,25 +3497,25 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B2" s="40" t="s">
         <v>99</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="H2" s="40" t="s">
         <v>83</v>
@@ -3478,16 +3524,16 @@
         <v>81</v>
       </c>
       <c r="J2" s="40" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="K2" s="40" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L2" s="40" t="s">
         <v>95</v>
       </c>
       <c r="M2" s="40" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="N2" s="40" t="s">
         <v>82</v>
@@ -3532,7 +3578,7 @@
         <v>1</v>
       </c>
       <c r="M3" s="30" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="N3" s="30" t="s">
         <v>101</v>
@@ -3550,7 +3596,7 @@
         <v>11002</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E4" s="30">
         <v>1</v>
@@ -3577,7 +3623,7 @@
         <v>1</v>
       </c>
       <c r="M4" s="30" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="N4" s="30"/>
     </row>
@@ -3593,7 +3639,7 @@
         <v>11003</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E5" s="30">
         <v>1</v>
@@ -3620,7 +3666,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="30" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="N5" s="30"/>
     </row>
@@ -3636,7 +3682,7 @@
         <v>11004</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E6" s="30">
         <v>1</v>
@@ -3663,7 +3709,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="30" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="N6" s="30"/>
     </row>
@@ -3679,7 +3725,7 @@
         <v>11005</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E7" s="30">
         <v>1</v>
@@ -3706,7 +3752,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="30" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="N7" s="30"/>
     </row>
@@ -3722,7 +3768,7 @@
         <v>11006</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E8" s="30">
         <v>1</v>
@@ -3749,7 +3795,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="30" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="N8" s="30"/>
     </row>
@@ -3765,7 +3811,7 @@
         <v>21001</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E9" s="30">
         <v>1</v>
@@ -3792,7 +3838,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="30" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="N9" s="30" t="s">
         <v>102</v>
@@ -3810,7 +3856,7 @@
         <v>21002</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E10" s="30">
         <v>1</v>
@@ -3837,7 +3883,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="30" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="N10" s="30"/>
     </row>
@@ -3853,7 +3899,7 @@
         <v>21003</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E11" s="30">
         <v>1</v>
@@ -3880,7 +3926,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="30" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="N11" s="30"/>
     </row>
@@ -3896,7 +3942,7 @@
         <v>21004</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E12" s="30">
         <v>1</v>
@@ -3923,7 +3969,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="30" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="N12" s="30"/>
     </row>
@@ -3939,7 +3985,7 @@
         <v>21005</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E13" s="30">
         <v>1</v>
@@ -3966,7 +4012,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="30" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="N13" s="30"/>
     </row>
@@ -3982,7 +4028,7 @@
         <v>21006</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E14" s="30">
         <v>1</v>
@@ -4009,7 +4055,7 @@
         <v>1</v>
       </c>
       <c r="M14" s="30" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="N14" s="30"/>
     </row>
@@ -4025,7 +4071,7 @@
         <v>32001</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E15" s="30">
         <v>2</v>
@@ -4066,7 +4112,7 @@
         <v>32002</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E16" s="30">
         <v>2</v>
@@ -4107,7 +4153,7 @@
         <v>32003</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E17" s="30">
         <v>2</v>
@@ -4148,7 +4194,7 @@
         <v>32004</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E18" s="30">
         <v>2</v>
@@ -4189,7 +4235,7 @@
         <v>32005</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E19" s="30">
         <v>2</v>
@@ -4230,7 +4276,7 @@
         <v>32006</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E20" s="30">
         <v>2</v>
@@ -4271,7 +4317,7 @@
         <v>32007</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E21" s="30">
         <v>2</v>
@@ -4312,7 +4358,7 @@
         <v>32008</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E22" s="30">
         <v>2</v>
@@ -4353,7 +4399,7 @@
         <v>32009</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E23" s="30">
         <v>2</v>
@@ -4394,7 +4440,7 @@
         <v>32010</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E24" s="30">
         <v>2</v>
@@ -4435,7 +4481,7 @@
         <v>32011</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E25" s="30">
         <v>2</v>
@@ -4476,7 +4522,7 @@
         <v>32012</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E26" s="30">
         <v>2</v>
@@ -4517,7 +4563,7 @@
         <v>32013</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E27" s="30">
         <v>2</v>
@@ -4558,7 +4604,7 @@
         <v>32014</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E28" s="30">
         <v>2</v>
@@ -4599,7 +4645,7 @@
         <v>32015</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E29" s="30">
         <v>2</v>
@@ -4640,7 +4686,7 @@
         <v>32016</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E30" s="30">
         <v>2</v>
@@ -4681,7 +4727,7 @@
         <v>32017</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E31" s="30">
         <v>2</v>
@@ -4722,7 +4768,7 @@
         <v>32018</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E32" s="30">
         <v>2</v>
@@ -4763,7 +4809,7 @@
         <v>32019</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E33" s="30">
         <v>2</v>
@@ -4804,7 +4850,7 @@
         <v>32020</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E34" s="30">
         <v>2</v>
@@ -4845,7 +4891,7 @@
         <v>32021</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E35" s="30">
         <v>2</v>
@@ -4886,7 +4932,7 @@
         <v>32022</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E36" s="30">
         <v>2</v>
@@ -4923,7 +4969,7 @@
         <v>32023</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E37" s="30">
         <v>2</v>
@@ -4960,7 +5006,7 @@
         <v>32024</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E38" s="30">
         <v>2</v>
@@ -4997,7 +5043,7 @@
         <v>33001</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E39" s="30">
         <v>2</v>
@@ -5038,7 +5084,7 @@
         <v>33002</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E40" s="30">
         <v>2</v>
@@ -5079,7 +5125,7 @@
         <v>33003</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E41" s="30">
         <v>2</v>
@@ -5257,13 +5303,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC62"/>
+  <dimension ref="A1:AE62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="U42" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E45" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="AE15" sqref="AE15"/>
+      <selection pane="bottomRight" activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -5274,195 +5320,207 @@
     <col min="4" max="4" width="11.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
     <col min="6" max="6" width="10.25" style="1" customWidth="1"/>
-    <col min="7" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="7.625" style="1" customWidth="1"/>
-    <col min="12" max="13" width="9.375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.625" style="1" customWidth="1"/>
-    <col min="17" max="24" width="9" style="1"/>
-    <col min="25" max="25" width="8.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="11.875" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="9" style="1"/>
+    <col min="7" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="7.625" style="1" customWidth="1"/>
+    <col min="14" max="15" width="9.375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.625" style="1" customWidth="1"/>
+    <col min="19" max="26" width="9" style="1"/>
+    <col min="27" max="27" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="11.875" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="157.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" ht="157.5" x14ac:dyDescent="0.2">
       <c r="B1" s="31"/>
       <c r="C1" s="33" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D1" s="34" t="s">
         <v>104</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>338</v>
+        <v>386</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>340</v>
+        <v>383</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H1" s="34" t="s">
         <v>110</v>
       </c>
       <c r="I1" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>384</v>
+      </c>
+      <c r="M1" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="N1" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="O1" s="34" t="s">
+        <v>336</v>
+      </c>
+      <c r="P1" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q1" s="34" t="s">
+        <v>337</v>
+      </c>
+      <c r="R1" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="S1" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="T1" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="U1" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="J1" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="K1" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="L1" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="M1" s="34" t="s">
-        <v>342</v>
-      </c>
-      <c r="N1" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="O1" s="34" t="s">
+      <c r="V1" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="W1" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="X1" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y1" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="Z1" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA1" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="AB1" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="AC1" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="AD1" s="34" t="s">
         <v>344</v>
       </c>
-      <c r="P1" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q1" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="R1" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="S1" s="34" t="s">
-        <v>230</v>
-      </c>
-      <c r="T1" s="34" t="s">
-        <v>346</v>
-      </c>
-      <c r="U1" s="34" t="s">
-        <v>348</v>
-      </c>
-      <c r="V1" s="34" t="s">
-        <v>357</v>
-      </c>
-      <c r="W1" s="34" t="s">
-        <v>356</v>
-      </c>
-      <c r="X1" s="34" t="s">
-        <v>355</v>
-      </c>
-      <c r="Y1" s="34" t="s">
-        <v>354</v>
-      </c>
-      <c r="Z1" s="34" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA1" s="34" t="s">
-        <v>352</v>
-      </c>
-      <c r="AB1" s="34" t="s">
-        <v>351</v>
-      </c>
-      <c r="AC1" s="11" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE1" s="11" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>99</v>
       </c>
       <c r="C2" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="D2" s="32" t="s">
         <v>364</v>
       </c>
-      <c r="D2" s="32" t="s">
-        <v>371</v>
-      </c>
       <c r="E2" s="32" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="J2" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>381</v>
+      </c>
+      <c r="M2" s="32" t="s">
+        <v>376</v>
+      </c>
+      <c r="N2" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="O2" s="32" t="s">
+        <v>378</v>
+      </c>
+      <c r="P2" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q2" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="R2" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="K2" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="L2" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="M2" s="32" t="s">
-        <v>341</v>
-      </c>
-      <c r="N2" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="O2" s="32" t="s">
-        <v>343</v>
-      </c>
-      <c r="P2" s="32" t="s">
+      <c r="S2" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="T2" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="U2" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="Q2" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="R2" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="S2" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="T2" s="32" t="s">
-        <v>345</v>
-      </c>
-      <c r="U2" s="32" t="s">
-        <v>347</v>
-      </c>
       <c r="V2" s="32" t="s">
-        <v>375</v>
+        <v>338</v>
       </c>
       <c r="W2" s="32" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="X2" s="32" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="Y2" s="32" t="s">
-        <v>119</v>
+        <v>369</v>
       </c>
       <c r="Z2" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="AA2" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB2" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="AA2" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="AB2" s="32" t="s">
-        <v>229</v>
-      </c>
       <c r="AC2" s="32" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="AD2" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE2" s="32" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
-        <f t="shared" ref="A3:A34" si="0">IF(COUNTIF(C:C,C3) &gt;1,"중복","ok")</f>
+        <f>IF(COUNTIF(C:C,C3) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B3" s="1">
@@ -5472,7 +5530,7 @@
         <v>24001</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E3" s="29">
         <v>2</v>
@@ -5499,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" s="29">
         <v>0</v>
@@ -5511,26 +5569,26 @@
         <v>0</v>
       </c>
       <c r="Q3" s="29">
+        <v>1</v>
+      </c>
+      <c r="R3" s="29">
+        <v>0</v>
+      </c>
+      <c r="S3" s="29">
         <v>3</v>
       </c>
-      <c r="R3" s="29">
+      <c r="T3" s="29">
         <v>5</v>
       </c>
-      <c r="S3" s="29">
-        <v>0</v>
-      </c>
-      <c r="T3" s="29">
-        <v>2</v>
-      </c>
       <c r="U3" s="29">
+        <v>0</v>
+      </c>
+      <c r="V3" s="29">
+        <v>2</v>
+      </c>
+      <c r="W3" s="29">
         <v>0.5</v>
       </c>
-      <c r="V3" s="29">
-        <v>0</v>
-      </c>
-      <c r="W3" s="29">
-        <v>0</v>
-      </c>
       <c r="X3" s="29">
         <v>0</v>
       </c>
@@ -5549,10 +5607,16 @@
       <c r="AC3" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD3" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C:C,C4) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B4" s="1">
@@ -5562,7 +5626,7 @@
         <v>24002</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E4" s="29">
         <v>2</v>
@@ -5589,7 +5653,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="29">
         <v>0</v>
@@ -5601,26 +5665,26 @@
         <v>0</v>
       </c>
       <c r="Q4" s="29">
+        <v>1</v>
+      </c>
+      <c r="R4" s="29">
+        <v>0</v>
+      </c>
+      <c r="S4" s="29">
         <v>5</v>
       </c>
-      <c r="R4" s="29">
+      <c r="T4" s="29">
         <v>7</v>
       </c>
-      <c r="S4" s="29">
-        <v>0</v>
-      </c>
-      <c r="T4" s="29">
-        <v>2</v>
-      </c>
       <c r="U4" s="29">
+        <v>0</v>
+      </c>
+      <c r="V4" s="29">
+        <v>2</v>
+      </c>
+      <c r="W4" s="29">
         <v>0.8</v>
       </c>
-      <c r="V4" s="29">
-        <v>0</v>
-      </c>
-      <c r="W4" s="29">
-        <v>0</v>
-      </c>
       <c r="X4" s="29">
         <v>0</v>
       </c>
@@ -5639,10 +5703,16 @@
       <c r="AC4" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD4" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C:C,C5) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B5" s="1">
@@ -5652,7 +5722,7 @@
         <v>24003</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E5" s="29">
         <v>2</v>
@@ -5679,7 +5749,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="29">
         <v>0</v>
@@ -5691,25 +5761,25 @@
         <v>0</v>
       </c>
       <c r="Q5" s="29">
+        <v>1</v>
+      </c>
+      <c r="R5" s="29">
+        <v>0</v>
+      </c>
+      <c r="S5" s="29">
         <v>7</v>
       </c>
-      <c r="R5" s="29">
+      <c r="T5" s="29">
         <v>9</v>
       </c>
-      <c r="S5" s="29">
-        <v>0</v>
-      </c>
-      <c r="T5" s="29">
-        <v>2</v>
-      </c>
       <c r="U5" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" s="29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W5" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" s="29">
         <v>0</v>
@@ -5729,10 +5799,16 @@
       <c r="AC5" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD5" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C:C,C6) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B6" s="1">
@@ -5742,7 +5818,7 @@
         <v>24004</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E6" s="29">
         <v>2</v>
@@ -5769,38 +5845,38 @@
         <v>0</v>
       </c>
       <c r="M6" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="29">
         <v>0</v>
       </c>
       <c r="O6" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P6" s="29">
         <v>0</v>
       </c>
       <c r="Q6" s="29">
+        <v>2</v>
+      </c>
+      <c r="R6" s="29">
+        <v>0</v>
+      </c>
+      <c r="S6" s="29">
         <v>12</v>
       </c>
-      <c r="R6" s="29">
+      <c r="T6" s="29">
         <v>15</v>
       </c>
-      <c r="S6" s="29">
-        <v>0</v>
-      </c>
-      <c r="T6" s="29">
+      <c r="U6" s="29">
+        <v>0</v>
+      </c>
+      <c r="V6" s="29">
         <v>3</v>
       </c>
-      <c r="U6" s="29">
+      <c r="W6" s="29">
         <v>1.2</v>
       </c>
-      <c r="V6" s="29">
-        <v>0</v>
-      </c>
-      <c r="W6" s="29">
-        <v>0</v>
-      </c>
       <c r="X6" s="29">
         <v>0</v>
       </c>
@@ -5819,10 +5895,16 @@
       <c r="AC6" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD6" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C:C,C7) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B7" s="1">
@@ -5832,7 +5914,7 @@
         <v>24005</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E7" s="29">
         <v>2</v>
@@ -5859,7 +5941,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="29">
         <v>0</v>
@@ -5874,23 +5956,23 @@
         <v>1</v>
       </c>
       <c r="R7" s="29">
+        <v>0</v>
+      </c>
+      <c r="S7" s="29">
+        <v>1</v>
+      </c>
+      <c r="T7" s="29">
         <v>10</v>
       </c>
-      <c r="S7" s="29">
-        <v>0</v>
-      </c>
-      <c r="T7" s="29">
+      <c r="U7" s="29">
+        <v>0</v>
+      </c>
+      <c r="V7" s="29">
         <v>7</v>
       </c>
-      <c r="U7" s="29">
+      <c r="W7" s="29">
         <v>1.2</v>
       </c>
-      <c r="V7" s="29">
-        <v>0</v>
-      </c>
-      <c r="W7" s="29">
-        <v>0</v>
-      </c>
       <c r="X7" s="29">
         <v>0</v>
       </c>
@@ -5909,10 +5991,16 @@
       <c r="AC7" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD7" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C:C,C8) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B8" s="1">
@@ -5922,7 +6010,7 @@
         <v>24101</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E8" s="29">
         <v>2</v>
@@ -5961,26 +6049,26 @@
         <v>0</v>
       </c>
       <c r="Q8" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="29">
+        <v>0</v>
+      </c>
+      <c r="S8" s="29">
+        <v>1</v>
+      </c>
+      <c r="T8" s="29">
         <v>3</v>
       </c>
-      <c r="S8" s="29">
-        <v>0</v>
-      </c>
-      <c r="T8" s="29">
-        <v>2</v>
-      </c>
       <c r="U8" s="29">
+        <v>0</v>
+      </c>
+      <c r="V8" s="29">
+        <v>2</v>
+      </c>
+      <c r="W8" s="29">
         <v>0.8</v>
       </c>
-      <c r="V8" s="29">
-        <v>0</v>
-      </c>
-      <c r="W8" s="29">
-        <v>0</v>
-      </c>
       <c r="X8" s="29">
         <v>0</v>
       </c>
@@ -5999,10 +6087,16 @@
       <c r="AC8" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C:C,C9) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B9" s="1">
@@ -6012,7 +6106,7 @@
         <v>24102</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E9" s="29">
         <v>2</v>
@@ -6051,23 +6145,23 @@
         <v>0</v>
       </c>
       <c r="Q9" s="29">
+        <v>0</v>
+      </c>
+      <c r="R9" s="29">
+        <v>0</v>
+      </c>
+      <c r="S9" s="29">
         <v>3</v>
       </c>
-      <c r="R9" s="29">
+      <c r="T9" s="29">
         <v>5</v>
       </c>
-      <c r="S9" s="29">
-        <v>0</v>
-      </c>
-      <c r="T9" s="29">
+      <c r="U9" s="29">
+        <v>0</v>
+      </c>
+      <c r="V9" s="29">
         <v>3</v>
       </c>
-      <c r="U9" s="29">
-        <v>1</v>
-      </c>
-      <c r="V9" s="29">
-        <v>0</v>
-      </c>
       <c r="W9" s="29">
         <v>1</v>
       </c>
@@ -6075,7 +6169,7 @@
         <v>0</v>
       </c>
       <c r="Y9" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9" s="29">
         <v>0</v>
@@ -6089,10 +6183,16 @@
       <c r="AC9" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C:C,C10) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B10" s="1">
@@ -6102,7 +6202,7 @@
         <v>24103</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E10" s="29">
         <v>2</v>
@@ -6141,34 +6241,34 @@
         <v>0</v>
       </c>
       <c r="Q10" s="29">
+        <v>0</v>
+      </c>
+      <c r="R10" s="29">
+        <v>0</v>
+      </c>
+      <c r="S10" s="29">
         <v>3</v>
       </c>
-      <c r="R10" s="29">
+      <c r="T10" s="29">
         <v>3</v>
       </c>
-      <c r="S10" s="29">
-        <v>0</v>
-      </c>
-      <c r="T10" s="29">
+      <c r="U10" s="29">
+        <v>0</v>
+      </c>
+      <c r="V10" s="29">
         <v>5</v>
       </c>
-      <c r="U10" s="29">
+      <c r="W10" s="29">
         <v>1.5</v>
       </c>
-      <c r="V10" s="29">
-        <v>0</v>
-      </c>
-      <c r="W10" s="29">
-        <v>0</v>
-      </c>
       <c r="X10" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="29">
         <v>0</v>
       </c>
       <c r="Z10" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10" s="29">
         <v>0</v>
@@ -6179,10 +6279,16 @@
       <c r="AC10" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C:C,C11) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B11" s="1">
@@ -6192,7 +6298,7 @@
         <v>24104</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E11" s="29">
         <v>2</v>
@@ -6228,31 +6334,31 @@
         <v>0</v>
       </c>
       <c r="P11" s="29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R11" s="29">
         <v>5</v>
       </c>
       <c r="S11" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T11" s="29">
+        <v>5</v>
+      </c>
+      <c r="U11" s="29">
+        <v>0</v>
+      </c>
+      <c r="V11" s="29">
         <v>3</v>
       </c>
-      <c r="U11" s="29">
+      <c r="W11" s="29">
         <v>1.5</v>
       </c>
-      <c r="V11" s="29">
-        <v>1</v>
-      </c>
-      <c r="W11" s="29">
-        <v>0</v>
-      </c>
       <c r="X11" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11" s="29">
         <v>0</v>
@@ -6269,10 +6375,16 @@
       <c r="AC11" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C:C,C12) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B12" s="1">
@@ -6282,7 +6394,7 @@
         <v>25001</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E12" s="29">
         <v>2</v>
@@ -6327,13 +6439,13 @@
         <v>0</v>
       </c>
       <c r="S12" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" s="29">
         <v>0</v>
       </c>
       <c r="U12" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" s="29">
         <v>0</v>
@@ -6359,10 +6471,16 @@
       <c r="AC12" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C:C,C13) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B13" s="1">
@@ -6372,7 +6490,7 @@
         <v>25002</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E13" s="29">
         <v>2</v>
@@ -6417,13 +6535,13 @@
         <v>0</v>
       </c>
       <c r="S13" s="29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T13" s="29">
         <v>0</v>
       </c>
       <c r="U13" s="29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V13" s="29">
         <v>0</v>
@@ -6449,10 +6567,16 @@
       <c r="AC13" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C:C,C14) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B14" s="1">
@@ -6462,7 +6586,7 @@
         <v>25003</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E14" s="29">
         <v>2</v>
@@ -6507,14 +6631,14 @@
         <v>0</v>
       </c>
       <c r="S14" s="29">
+        <v>0</v>
+      </c>
+      <c r="T14" s="29">
+        <v>0</v>
+      </c>
+      <c r="U14" s="29">
         <v>3</v>
       </c>
-      <c r="T14" s="29">
-        <v>0</v>
-      </c>
-      <c r="U14" s="29">
-        <v>0</v>
-      </c>
       <c r="V14" s="29">
         <v>0</v>
       </c>
@@ -6539,10 +6663,16 @@
       <c r="AC14" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C:C,C15) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B15" s="1">
@@ -6552,7 +6682,7 @@
         <v>25004</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E15" s="29">
         <v>2</v>
@@ -6597,14 +6727,14 @@
         <v>0</v>
       </c>
       <c r="S15" s="29">
+        <v>0</v>
+      </c>
+      <c r="T15" s="29">
+        <v>0</v>
+      </c>
+      <c r="U15" s="29">
         <v>4</v>
       </c>
-      <c r="T15" s="29">
-        <v>0</v>
-      </c>
-      <c r="U15" s="29">
-        <v>0</v>
-      </c>
       <c r="V15" s="29">
         <v>0</v>
       </c>
@@ -6629,10 +6759,16 @@
       <c r="AC15" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C:C,C16) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B16" s="1">
@@ -6642,7 +6778,7 @@
         <v>25005</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E16" s="29">
         <v>2</v>
@@ -6687,14 +6823,14 @@
         <v>0</v>
       </c>
       <c r="S16" s="29">
+        <v>0</v>
+      </c>
+      <c r="T16" s="29">
+        <v>0</v>
+      </c>
+      <c r="U16" s="29">
         <v>5</v>
       </c>
-      <c r="T16" s="29">
-        <v>0</v>
-      </c>
-      <c r="U16" s="29">
-        <v>0</v>
-      </c>
       <c r="V16" s="29">
         <v>0</v>
       </c>
@@ -6719,10 +6855,16 @@
       <c r="AC16" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C:C,C17) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B17" s="1">
@@ -6732,7 +6874,7 @@
         <v>25006</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E17" s="29">
         <v>2</v>
@@ -6777,14 +6919,14 @@
         <v>0</v>
       </c>
       <c r="S17" s="29">
+        <v>0</v>
+      </c>
+      <c r="T17" s="29">
+        <v>0</v>
+      </c>
+      <c r="U17" s="29">
         <v>6</v>
       </c>
-      <c r="T17" s="29">
-        <v>0</v>
-      </c>
-      <c r="U17" s="29">
-        <v>0</v>
-      </c>
       <c r="V17" s="29">
         <v>0</v>
       </c>
@@ -6809,10 +6951,16 @@
       <c r="AC17" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C:C,C18) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B18" s="1">
@@ -6822,7 +6970,7 @@
         <v>13001</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E18" s="29">
         <v>1</v>
@@ -6843,13 +6991,13 @@
         <v>5</v>
       </c>
       <c r="K18" s="29">
+        <v>0</v>
+      </c>
+      <c r="L18" s="29">
+        <v>0</v>
+      </c>
+      <c r="M18" s="29">
         <v>10</v>
-      </c>
-      <c r="L18" s="29">
-        <v>10</v>
-      </c>
-      <c r="M18" s="29">
-        <v>0</v>
       </c>
       <c r="N18" s="29">
         <v>10</v>
@@ -6858,7 +7006,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q18" s="29">
         <v>0</v>
@@ -6899,10 +7047,16 @@
       <c r="AC18" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C:C,C19) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B19" s="1">
@@ -6912,7 +7066,7 @@
         <v>13002</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E19" s="29">
         <v>1</v>
@@ -6933,13 +7087,13 @@
         <v>7</v>
       </c>
       <c r="K19" s="29">
+        <v>0</v>
+      </c>
+      <c r="L19" s="29">
+        <v>0</v>
+      </c>
+      <c r="M19" s="29">
         <v>20</v>
-      </c>
-      <c r="L19" s="29">
-        <v>20</v>
-      </c>
-      <c r="M19" s="29">
-        <v>0</v>
       </c>
       <c r="N19" s="29">
         <v>20</v>
@@ -6948,7 +7102,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="29">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q19" s="29">
         <v>0</v>
@@ -6989,10 +7143,16 @@
       <c r="AC19" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C:C,C20) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B20" s="1">
@@ -7002,7 +7162,7 @@
         <v>13003</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E20" s="29">
         <v>1</v>
@@ -7023,13 +7183,13 @@
         <v>9</v>
       </c>
       <c r="K20" s="29">
+        <v>0</v>
+      </c>
+      <c r="L20" s="29">
+        <v>0</v>
+      </c>
+      <c r="M20" s="29">
         <v>50</v>
-      </c>
-      <c r="L20" s="29">
-        <v>30</v>
-      </c>
-      <c r="M20" s="29">
-        <v>0</v>
       </c>
       <c r="N20" s="29">
         <v>30</v>
@@ -7038,7 +7198,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="29">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q20" s="29">
         <v>0</v>
@@ -7079,10 +7239,16 @@
       <c r="AC20" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C:C,C21) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B21" s="1">
@@ -7092,7 +7258,7 @@
         <v>13004</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E21" s="29">
         <v>1</v>
@@ -7113,14 +7279,14 @@
         <v>3</v>
       </c>
       <c r="K21" s="29">
+        <v>0</v>
+      </c>
+      <c r="L21" s="29">
+        <v>0</v>
+      </c>
+      <c r="M21" s="29">
         <v>30</v>
       </c>
-      <c r="L21" s="29">
-        <v>0</v>
-      </c>
-      <c r="M21" s="29">
-        <v>1</v>
-      </c>
       <c r="N21" s="29">
         <v>0</v>
       </c>
@@ -7131,7 +7297,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="29">
         <v>0</v>
@@ -7169,10 +7335,16 @@
       <c r="AC21" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C:C,C22) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B22" s="1">
@@ -7182,7 +7354,7 @@
         <v>13005</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E22" s="29">
         <v>1</v>
@@ -7203,14 +7375,14 @@
         <v>5</v>
       </c>
       <c r="K22" s="29">
+        <v>0</v>
+      </c>
+      <c r="L22" s="29">
+        <v>0</v>
+      </c>
+      <c r="M22" s="29">
         <v>50</v>
       </c>
-      <c r="L22" s="29">
-        <v>0</v>
-      </c>
-      <c r="M22" s="29">
-        <v>2</v>
-      </c>
       <c r="N22" s="29">
         <v>0</v>
       </c>
@@ -7221,7 +7393,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R22" s="29">
         <v>0</v>
@@ -7259,10 +7431,16 @@
       <c r="AC22" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C:C,C23) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B23" s="1">
@@ -7272,7 +7450,7 @@
         <v>13006</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E23" s="29">
         <v>1</v>
@@ -7293,13 +7471,13 @@
         <v>7</v>
       </c>
       <c r="K23" s="29">
+        <v>0</v>
+      </c>
+      <c r="L23" s="29">
+        <v>0</v>
+      </c>
+      <c r="M23" s="29">
         <v>80</v>
-      </c>
-      <c r="L23" s="29">
-        <v>0</v>
-      </c>
-      <c r="M23" s="29">
-        <v>3</v>
       </c>
       <c r="N23" s="29">
         <v>0</v>
@@ -7311,7 +7489,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R23" s="29">
         <v>0</v>
@@ -7349,10 +7527,16 @@
       <c r="AC23" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C:C,C24) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B24" s="1">
@@ -7362,7 +7546,7 @@
         <v>13007</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E24" s="29">
         <v>1</v>
@@ -7383,14 +7567,14 @@
         <v>3</v>
       </c>
       <c r="K24" s="29">
+        <v>0</v>
+      </c>
+      <c r="L24" s="29">
+        <v>0</v>
+      </c>
+      <c r="M24" s="29">
         <v>30</v>
       </c>
-      <c r="L24" s="29">
-        <v>0</v>
-      </c>
-      <c r="M24" s="29">
-        <v>1</v>
-      </c>
       <c r="N24" s="29">
         <v>0</v>
       </c>
@@ -7401,7 +7585,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="29">
         <v>0</v>
@@ -7425,13 +7609,13 @@
         <v>0</v>
       </c>
       <c r="Y24" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="29">
         <v>0</v>
       </c>
       <c r="AA24" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24" s="29">
         <v>0</v>
@@ -7439,10 +7623,16 @@
       <c r="AC24" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C:C,C25) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B25" s="1">
@@ -7452,7 +7642,7 @@
         <v>13008</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E25" s="29">
         <v>1</v>
@@ -7473,14 +7663,14 @@
         <v>5</v>
       </c>
       <c r="K25" s="29">
+        <v>0</v>
+      </c>
+      <c r="L25" s="29">
+        <v>0</v>
+      </c>
+      <c r="M25" s="29">
         <v>50</v>
       </c>
-      <c r="L25" s="29">
-        <v>0</v>
-      </c>
-      <c r="M25" s="29">
-        <v>2</v>
-      </c>
       <c r="N25" s="29">
         <v>0</v>
       </c>
@@ -7491,7 +7681,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R25" s="29">
         <v>0</v>
@@ -7518,21 +7708,27 @@
         <v>0</v>
       </c>
       <c r="Z25" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="29">
         <v>0</v>
       </c>
       <c r="AB25" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC25" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C:C,C26) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B26" s="1">
@@ -7542,7 +7738,7 @@
         <v>13009</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="E26" s="29">
         <v>1</v>
@@ -7563,13 +7759,13 @@
         <v>7</v>
       </c>
       <c r="K26" s="29">
+        <v>0</v>
+      </c>
+      <c r="L26" s="29">
+        <v>0</v>
+      </c>
+      <c r="M26" s="29">
         <v>80</v>
-      </c>
-      <c r="L26" s="29">
-        <v>0</v>
-      </c>
-      <c r="M26" s="29">
-        <v>3</v>
       </c>
       <c r="N26" s="29">
         <v>0</v>
@@ -7581,7 +7777,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R26" s="29">
         <v>0</v>
@@ -7611,18 +7807,24 @@
         <v>0</v>
       </c>
       <c r="AA26" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="29">
         <v>0</v>
       </c>
       <c r="AC26" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C:C,C27) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B27" s="1">
@@ -7632,7 +7834,7 @@
         <v>12001</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E27" s="29">
         <v>1</v>
@@ -7659,7 +7861,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" s="29">
         <v>0</v>
@@ -7671,7 +7873,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" s="29">
         <v>0</v>
@@ -7704,15 +7906,21 @@
         <v>0</v>
       </c>
       <c r="AB27" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="29">
         <v>1010</v>
       </c>
-      <c r="AC27" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE27" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C:C,C28) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B28" s="1">
@@ -7722,7 +7930,7 @@
         <v>12002</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E28" s="29">
         <v>1</v>
@@ -7749,7 +7957,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N28" s="29">
         <v>0</v>
@@ -7761,7 +7969,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R28" s="29">
         <v>0</v>
@@ -7794,15 +8002,21 @@
         <v>0</v>
       </c>
       <c r="AB28" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="29">
         <v>1020</v>
       </c>
-      <c r="AC28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C:C,C29) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B29" s="1">
@@ -7812,7 +8026,7 @@
         <v>12003</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E29" s="29">
         <v>1</v>
@@ -7839,7 +8053,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N29" s="29">
         <v>0</v>
@@ -7851,7 +8065,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R29" s="29">
         <v>0</v>
@@ -7884,15 +8098,21 @@
         <v>0</v>
       </c>
       <c r="AB29" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="29">
         <v>1030</v>
       </c>
-      <c r="AC29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C:C,C30) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B30" s="1">
@@ -7902,7 +8122,7 @@
         <v>12004</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E30" s="29">
         <v>1</v>
@@ -7929,7 +8149,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" s="29">
         <v>0</v>
@@ -7941,7 +8161,7 @@
         <v>0</v>
       </c>
       <c r="Q30" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="29">
         <v>0</v>
@@ -7974,15 +8194,21 @@
         <v>0</v>
       </c>
       <c r="AB30" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="29">
         <v>2010</v>
       </c>
-      <c r="AC30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C:C,C31) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B31" s="1">
@@ -7992,7 +8218,7 @@
         <v>12005</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E31" s="29">
         <v>1</v>
@@ -8019,7 +8245,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N31" s="29">
         <v>0</v>
@@ -8031,7 +8257,7 @@
         <v>0</v>
       </c>
       <c r="Q31" s="29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R31" s="29">
         <v>0</v>
@@ -8064,15 +8290,21 @@
         <v>0</v>
       </c>
       <c r="AB31" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="29">
         <v>2020</v>
       </c>
-      <c r="AC31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C:C,C32) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B32" s="1">
@@ -8082,7 +8314,7 @@
         <v>12006</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E32" s="29">
         <v>1</v>
@@ -8109,7 +8341,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N32" s="29">
         <v>0</v>
@@ -8121,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="Q32" s="29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R32" s="29">
         <v>0</v>
@@ -8154,15 +8386,21 @@
         <v>0</v>
       </c>
       <c r="AB32" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="29">
         <v>2030</v>
       </c>
-      <c r="AC32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C:C,C33) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B33" s="1">
@@ -8172,7 +8410,7 @@
         <v>12007</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E33" s="29">
         <v>1</v>
@@ -8199,7 +8437,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" s="29">
         <v>0</v>
@@ -8211,7 +8449,7 @@
         <v>0</v>
       </c>
       <c r="Q33" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" s="29">
         <v>0</v>
@@ -8244,15 +8482,21 @@
         <v>0</v>
       </c>
       <c r="AB33" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="29">
         <v>3010</v>
       </c>
-      <c r="AC33" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C:C,C34) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B34" s="1">
@@ -8262,7 +8506,7 @@
         <v>12008</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E34" s="29">
         <v>1</v>
@@ -8289,7 +8533,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N34" s="29">
         <v>0</v>
@@ -8301,7 +8545,7 @@
         <v>0</v>
       </c>
       <c r="Q34" s="29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R34" s="29">
         <v>0</v>
@@ -8334,15 +8578,21 @@
         <v>0</v>
       </c>
       <c r="AB34" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="29">
         <v>3020</v>
       </c>
-      <c r="AC34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="str">
-        <f t="shared" ref="A35:A62" si="1">IF(COUNTIF(C:C,C35) &gt;1,"중복","ok")</f>
+        <f>IF(COUNTIF(C:C,C35) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B35" s="1">
@@ -8352,7 +8602,7 @@
         <v>12009</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E35" s="29">
         <v>1</v>
@@ -8379,7 +8629,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N35" s="29">
         <v>0</v>
@@ -8391,7 +8641,7 @@
         <v>0</v>
       </c>
       <c r="Q35" s="29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R35" s="29">
         <v>0</v>
@@ -8424,15 +8674,21 @@
         <v>0</v>
       </c>
       <c r="AB35" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="29">
         <v>3030</v>
       </c>
-      <c r="AC35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(C:C,C36) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B36" s="1">
@@ -8442,7 +8698,7 @@
         <v>12010</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E36" s="29">
         <v>1</v>
@@ -8469,7 +8725,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36" s="29">
         <v>0</v>
@@ -8481,7 +8737,7 @@
         <v>0</v>
       </c>
       <c r="Q36" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="29">
         <v>0</v>
@@ -8514,15 +8770,21 @@
         <v>0</v>
       </c>
       <c r="AB36" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="29">
         <v>4010</v>
       </c>
-      <c r="AC36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(C:C,C37) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B37" s="1">
@@ -8532,7 +8794,7 @@
         <v>12011</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E37" s="29">
         <v>1</v>
@@ -8559,7 +8821,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N37" s="29">
         <v>0</v>
@@ -8571,7 +8833,7 @@
         <v>0</v>
       </c>
       <c r="Q37" s="29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R37" s="29">
         <v>0</v>
@@ -8604,15 +8866,21 @@
         <v>0</v>
       </c>
       <c r="AB37" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="29">
         <v>4020</v>
       </c>
-      <c r="AC37" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(C:C,C38) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B38" s="1">
@@ -8622,7 +8890,7 @@
         <v>12012</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E38" s="29">
         <v>1</v>
@@ -8649,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N38" s="29">
         <v>0</v>
@@ -8661,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="Q38" s="29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R38" s="29">
         <v>0</v>
@@ -8694,15 +8962,21 @@
         <v>0</v>
       </c>
       <c r="AB38" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="29">
         <v>4030</v>
       </c>
-      <c r="AC38" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(C:C,C39) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B39" s="1">
@@ -8712,7 +8986,7 @@
         <v>16001</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E39" s="29">
         <v>1</v>
@@ -8732,14 +9006,12 @@
       <c r="J39" s="29">
         <v>10</v>
       </c>
-      <c r="K39" s="29">
-        <v>0</v>
-      </c>
+      <c r="K39" s="29"/>
       <c r="L39" s="29">
         <v>0</v>
       </c>
       <c r="M39" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" s="29">
         <v>0</v>
@@ -8751,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" s="29">
         <v>0</v>
@@ -8784,15 +9056,21 @@
         <v>0</v>
       </c>
       <c r="AB39" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="29">
         <v>5010</v>
       </c>
-      <c r="AC39" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(C:C,C40) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B40" s="1">
@@ -8802,7 +9080,7 @@
         <v>16002</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E40" s="29">
         <v>1</v>
@@ -8822,14 +9100,12 @@
       <c r="J40" s="29">
         <v>15</v>
       </c>
-      <c r="K40" s="29">
-        <v>0</v>
-      </c>
+      <c r="K40" s="29"/>
       <c r="L40" s="29">
         <v>0</v>
       </c>
       <c r="M40" s="29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N40" s="29">
         <v>0</v>
@@ -8841,7 +9117,7 @@
         <v>0</v>
       </c>
       <c r="Q40" s="29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R40" s="29">
         <v>0</v>
@@ -8874,15 +9150,21 @@
         <v>0</v>
       </c>
       <c r="AB40" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="29">
         <v>5020</v>
       </c>
-      <c r="AC40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(C:C,C41) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B41" s="1">
@@ -8892,7 +9174,7 @@
         <v>16003</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E41" s="29">
         <v>1</v>
@@ -8912,14 +9194,12 @@
       <c r="J41" s="29">
         <v>20</v>
       </c>
-      <c r="K41" s="29">
-        <v>0</v>
-      </c>
+      <c r="K41" s="29"/>
       <c r="L41" s="29">
         <v>0</v>
       </c>
       <c r="M41" s="29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N41" s="29">
         <v>0</v>
@@ -8931,7 +9211,7 @@
         <v>0</v>
       </c>
       <c r="Q41" s="29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R41" s="29">
         <v>0</v>
@@ -8964,15 +9244,21 @@
         <v>0</v>
       </c>
       <c r="AB41" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="29">
         <v>5030</v>
       </c>
-      <c r="AC41" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(C:C,C42) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B42" s="1">
@@ -8982,7 +9268,7 @@
         <v>11001</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E42" s="29">
         <v>1</v>
@@ -9002,14 +9288,12 @@
       <c r="J42" s="29">
         <v>10</v>
       </c>
-      <c r="K42" s="29">
-        <v>0</v>
-      </c>
+      <c r="K42" s="29"/>
       <c r="L42" s="29">
         <v>0</v>
       </c>
       <c r="M42" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42" s="29">
         <v>0</v>
@@ -9021,7 +9305,7 @@
         <v>0</v>
       </c>
       <c r="Q42" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" s="29">
         <v>0</v>
@@ -9056,13 +9340,19 @@
       <c r="AB42" s="29">
         <v>0</v>
       </c>
-      <c r="AC42" s="1">
+      <c r="AC42" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="1">
         <v>1010</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(C:C,C43) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B43" s="1">
@@ -9072,7 +9362,7 @@
         <v>11002</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E43" s="29">
         <v>1</v>
@@ -9092,14 +9382,12 @@
       <c r="J43" s="29">
         <v>20</v>
       </c>
-      <c r="K43" s="29">
-        <v>0</v>
-      </c>
+      <c r="K43" s="29"/>
       <c r="L43" s="29">
         <v>0</v>
       </c>
       <c r="M43" s="29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N43" s="29">
         <v>0</v>
@@ -9111,7 +9399,7 @@
         <v>0</v>
       </c>
       <c r="Q43" s="29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R43" s="29">
         <v>0</v>
@@ -9146,13 +9434,19 @@
       <c r="AB43" s="29">
         <v>0</v>
       </c>
-      <c r="AC43" s="1">
+      <c r="AC43" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="1">
         <v>1020</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(C:C,C44) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B44" s="1">
@@ -9162,7 +9456,7 @@
         <v>11003</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E44" s="29">
         <v>1</v>
@@ -9182,26 +9476,24 @@
       <c r="J44" s="29">
         <v>30</v>
       </c>
-      <c r="K44" s="29">
-        <v>0</v>
-      </c>
+      <c r="K44" s="29"/>
       <c r="L44" s="29">
         <v>0</v>
       </c>
       <c r="M44" s="29">
-        <v>3</v>
-      </c>
-      <c r="N44" s="1">
+        <v>0</v>
+      </c>
+      <c r="N44" s="29">
         <v>0</v>
       </c>
       <c r="O44" s="29">
         <v>3</v>
       </c>
-      <c r="P44" s="29">
+      <c r="P44" s="1">
         <v>0</v>
       </c>
       <c r="Q44" s="29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R44" s="29">
         <v>0</v>
@@ -9236,13 +9528,19 @@
       <c r="AB44" s="29">
         <v>0</v>
       </c>
-      <c r="AC44" s="1">
+      <c r="AC44" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="1">
         <v>1030</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(C:C,C45) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B45" s="1">
@@ -9252,7 +9550,7 @@
         <v>11004</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E45" s="29">
         <v>1</v>
@@ -9272,26 +9570,24 @@
       <c r="J45" s="29">
         <v>10</v>
       </c>
-      <c r="K45" s="29">
-        <v>0</v>
-      </c>
+      <c r="K45" s="29"/>
       <c r="L45" s="29">
         <v>0</v>
       </c>
       <c r="M45" s="29">
-        <v>1</v>
-      </c>
-      <c r="N45" s="1">
-        <v>0</v>
-      </c>
-      <c r="O45" s="1">
-        <v>1</v>
-      </c>
-      <c r="P45" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="29">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N45" s="29">
+        <v>0</v>
+      </c>
+      <c r="O45" s="29">
+        <v>1</v>
+      </c>
+      <c r="P45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>1</v>
       </c>
       <c r="R45" s="29">
         <v>0</v>
@@ -9326,13 +9622,19 @@
       <c r="AB45" s="29">
         <v>0</v>
       </c>
-      <c r="AC45" s="1">
+      <c r="AC45" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="1">
         <v>2010</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(C:C,C46) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B46" s="1">
@@ -9342,7 +9644,7 @@
         <v>11005</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E46" s="29">
         <v>1</v>
@@ -9362,26 +9664,24 @@
       <c r="J46" s="29">
         <v>20</v>
       </c>
-      <c r="K46" s="29">
-        <v>0</v>
-      </c>
+      <c r="K46" s="29"/>
       <c r="L46" s="29">
         <v>0</v>
       </c>
       <c r="M46" s="29">
-        <v>2</v>
-      </c>
-      <c r="N46" s="1">
-        <v>0</v>
-      </c>
-      <c r="O46" s="1">
-        <v>2</v>
-      </c>
-      <c r="P46" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="29">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N46" s="29">
+        <v>0</v>
+      </c>
+      <c r="O46" s="29">
+        <v>2</v>
+      </c>
+      <c r="P46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>2</v>
       </c>
       <c r="R46" s="29">
         <v>0</v>
@@ -9416,13 +9716,19 @@
       <c r="AB46" s="29">
         <v>0</v>
       </c>
-      <c r="AC46" s="1">
+      <c r="AC46" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(C:C,C47) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B47" s="1">
@@ -9432,7 +9738,7 @@
         <v>11006</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E47" s="29">
         <v>1</v>
@@ -9452,27 +9758,25 @@
       <c r="J47" s="29">
         <v>30</v>
       </c>
-      <c r="K47" s="29">
-        <v>0</v>
-      </c>
+      <c r="K47" s="29"/>
       <c r="L47" s="29">
         <v>0</v>
       </c>
       <c r="M47" s="29">
+        <v>0</v>
+      </c>
+      <c r="N47" s="29">
+        <v>0</v>
+      </c>
+      <c r="O47" s="29">
         <v>3</v>
       </c>
-      <c r="N47" s="1">
-        <v>0</v>
-      </c>
-      <c r="O47" s="1">
+      <c r="P47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="1">
         <v>3</v>
       </c>
-      <c r="P47" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="29">
-        <v>0</v>
-      </c>
       <c r="R47" s="29">
         <v>0</v>
       </c>
@@ -9506,13 +9810,19 @@
       <c r="AB47" s="29">
         <v>0</v>
       </c>
-      <c r="AC47" s="1">
+      <c r="AC47" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="1">
         <v>2030</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(C:C,C48) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B48" s="1">
@@ -9522,7 +9832,7 @@
         <v>11007</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E48" s="29">
         <v>1</v>
@@ -9542,14 +9852,12 @@
       <c r="J48" s="29">
         <v>10</v>
       </c>
-      <c r="K48" s="29">
-        <v>0</v>
-      </c>
+      <c r="K48" s="29"/>
       <c r="L48" s="29">
         <v>0</v>
       </c>
       <c r="M48" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48" s="29">
         <v>0</v>
@@ -9561,7 +9869,7 @@
         <v>0</v>
       </c>
       <c r="Q48" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" s="29">
         <v>0</v>
@@ -9596,13 +9904,19 @@
       <c r="AB48" s="29">
         <v>0</v>
       </c>
-      <c r="AC48" s="1">
+      <c r="AC48" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="1">
         <v>3010</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(C:C,C49) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B49" s="1">
@@ -9612,7 +9926,7 @@
         <v>11008</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E49" s="29">
         <v>1</v>
@@ -9632,14 +9946,12 @@
       <c r="J49" s="29">
         <v>20</v>
       </c>
-      <c r="K49" s="29">
-        <v>0</v>
-      </c>
+      <c r="K49" s="29"/>
       <c r="L49" s="29">
         <v>0</v>
       </c>
       <c r="M49" s="29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N49" s="29">
         <v>0</v>
@@ -9651,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="Q49" s="29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R49" s="29">
         <v>0</v>
@@ -9686,13 +9998,19 @@
       <c r="AB49" s="29">
         <v>0</v>
       </c>
-      <c r="AC49" s="1">
+      <c r="AC49" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="1">
         <v>3020</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(C:C,C50) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B50" s="1">
@@ -9702,7 +10020,7 @@
         <v>11009</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E50" s="29">
         <v>1</v>
@@ -9722,26 +10040,24 @@
       <c r="J50" s="29">
         <v>30</v>
       </c>
-      <c r="K50" s="29">
-        <v>0</v>
-      </c>
+      <c r="K50" s="29"/>
       <c r="L50" s="29">
         <v>0</v>
       </c>
       <c r="M50" s="29">
-        <v>3</v>
-      </c>
-      <c r="N50" s="1">
+        <v>0</v>
+      </c>
+      <c r="N50" s="29">
         <v>0</v>
       </c>
       <c r="O50" s="29">
         <v>3</v>
       </c>
-      <c r="P50" s="29">
+      <c r="P50" s="1">
         <v>0</v>
       </c>
       <c r="Q50" s="29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R50" s="29">
         <v>0</v>
@@ -9776,13 +10092,19 @@
       <c r="AB50" s="29">
         <v>0</v>
       </c>
-      <c r="AC50" s="1">
+      <c r="AC50" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="1">
         <v>3030</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(C:C,C51) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B51" s="1">
@@ -9792,7 +10114,7 @@
         <v>11010</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E51" s="29">
         <v>1</v>
@@ -9812,26 +10134,24 @@
       <c r="J51" s="29">
         <v>10</v>
       </c>
-      <c r="K51" s="29">
-        <v>0</v>
-      </c>
+      <c r="K51" s="29"/>
       <c r="L51" s="29">
         <v>0</v>
       </c>
       <c r="M51" s="29">
-        <v>1</v>
-      </c>
-      <c r="N51" s="1">
-        <v>0</v>
-      </c>
-      <c r="O51" s="1">
-        <v>1</v>
-      </c>
-      <c r="P51" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="29">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N51" s="29">
+        <v>0</v>
+      </c>
+      <c r="O51" s="29">
+        <v>1</v>
+      </c>
+      <c r="P51" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>1</v>
       </c>
       <c r="R51" s="29">
         <v>0</v>
@@ -9866,13 +10186,19 @@
       <c r="AB51" s="29">
         <v>0</v>
       </c>
-      <c r="AC51" s="1">
+      <c r="AC51" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="1">
         <v>4010</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(C:C,C52) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B52" s="1">
@@ -9882,7 +10208,7 @@
         <v>11011</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E52" s="29">
         <v>1</v>
@@ -9902,26 +10228,24 @@
       <c r="J52" s="29">
         <v>20</v>
       </c>
-      <c r="K52" s="29">
-        <v>0</v>
-      </c>
+      <c r="K52" s="29"/>
       <c r="L52" s="29">
         <v>0</v>
       </c>
       <c r="M52" s="29">
-        <v>2</v>
-      </c>
-      <c r="N52" s="1">
-        <v>0</v>
-      </c>
-      <c r="O52" s="1">
-        <v>2</v>
-      </c>
-      <c r="P52" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="29">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N52" s="29">
+        <v>0</v>
+      </c>
+      <c r="O52" s="29">
+        <v>2</v>
+      </c>
+      <c r="P52" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>2</v>
       </c>
       <c r="R52" s="29">
         <v>0</v>
@@ -9956,13 +10280,19 @@
       <c r="AB52" s="29">
         <v>0</v>
       </c>
-      <c r="AC52" s="1">
+      <c r="AC52" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="1">
         <v>4020</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(C:C,C53) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B53" s="1">
@@ -9972,7 +10302,7 @@
         <v>11012</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E53" s="29">
         <v>1</v>
@@ -9992,27 +10322,25 @@
       <c r="J53" s="29">
         <v>30</v>
       </c>
-      <c r="K53" s="29">
-        <v>0</v>
-      </c>
+      <c r="K53" s="29"/>
       <c r="L53" s="29">
         <v>0</v>
       </c>
       <c r="M53" s="29">
+        <v>0</v>
+      </c>
+      <c r="N53" s="29">
+        <v>0</v>
+      </c>
+      <c r="O53" s="29">
         <v>3</v>
       </c>
-      <c r="N53" s="1">
-        <v>0</v>
-      </c>
-      <c r="O53" s="1">
+      <c r="P53" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="1">
         <v>3</v>
       </c>
-      <c r="P53" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="29">
-        <v>0</v>
-      </c>
       <c r="R53" s="29">
         <v>0</v>
       </c>
@@ -10046,13 +10374,19 @@
       <c r="AB53" s="29">
         <v>0</v>
       </c>
-      <c r="AC53" s="1">
+      <c r="AC53" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="1">
         <v>4030</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(C:C,C54) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B54" s="1">
@@ -10062,13 +10396,13 @@
         <v>36001</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E54" s="29">
         <v>1</v>
       </c>
       <c r="F54" s="29">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="G54" s="29">
         <v>0</v>
@@ -10080,28 +10414,26 @@
         <v>0</v>
       </c>
       <c r="J54" s="29">
-        <v>0</v>
-      </c>
-      <c r="K54" s="29">
-        <v>100</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="K54" s="29"/>
       <c r="L54" s="29">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M54" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N54" s="29">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="O54" s="29">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="P54" s="29">
         <v>0</v>
       </c>
       <c r="Q54" s="29">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R54" s="29">
         <v>0</v>
@@ -10136,13 +10468,19 @@
       <c r="AB54" s="29">
         <v>0</v>
       </c>
-      <c r="AC54" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AC54" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(C:C,C55) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B55" s="1">
@@ -10152,13 +10490,13 @@
         <v>36002</v>
       </c>
       <c r="D55" s="29" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E55" s="29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F55" s="29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G55" s="29">
         <v>0</v>
@@ -10170,28 +10508,26 @@
         <v>0</v>
       </c>
       <c r="J55" s="29">
-        <v>60</v>
-      </c>
-      <c r="K55" s="29">
-        <v>1</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="K55" s="29"/>
       <c r="L55" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M55" s="29">
         <v>0</v>
       </c>
       <c r="N55" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55" s="29">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P55" s="29">
         <v>0</v>
       </c>
       <c r="Q55" s="29">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R55" s="29">
         <v>0</v>
@@ -10226,204 +10562,308 @@
       <c r="AB55" s="29">
         <v>0</v>
       </c>
-      <c r="AC55" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AC55" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(C:C,C56) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
       <c r="B56" s="1">
         <v>54</v>
       </c>
-      <c r="C56" s="29">
+      <c r="C56" s="1">
         <v>36003</v>
       </c>
-      <c r="D56" s="29" t="s">
-        <v>261</v>
-      </c>
-      <c r="E56" s="29">
-        <v>1</v>
-      </c>
-      <c r="F56" s="29">
-        <v>8</v>
-      </c>
-      <c r="G56" s="29">
-        <v>0</v>
-      </c>
-      <c r="H56" s="29">
-        <v>1</v>
-      </c>
-      <c r="I56" s="29">
-        <v>0</v>
-      </c>
-      <c r="J56" s="29">
-        <v>-1</v>
-      </c>
-      <c r="K56" s="29">
-        <v>0</v>
-      </c>
-      <c r="L56" s="29">
-        <v>1</v>
-      </c>
-      <c r="M56" s="29">
-        <v>0</v>
-      </c>
-      <c r="N56" s="29">
-        <v>0</v>
-      </c>
-      <c r="O56" s="29">
+      <c r="D56" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E56" s="1">
+        <v>2</v>
+      </c>
+      <c r="F56" s="1">
+        <v>9</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>3</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0</v>
+      </c>
+      <c r="L56" s="1">
+        <v>2</v>
+      </c>
+      <c r="M56" s="1">
+        <v>0</v>
+      </c>
+      <c r="N56" s="1">
+        <v>0</v>
+      </c>
+      <c r="O56" s="1">
+        <v>1</v>
+      </c>
+      <c r="P56" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="1">
         <v>0.1</v>
       </c>
-      <c r="P56" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="29">
-        <v>0</v>
-      </c>
-      <c r="R56" s="29">
-        <v>0</v>
-      </c>
-      <c r="S56" s="29">
-        <v>0</v>
-      </c>
-      <c r="T56" s="29">
-        <v>0</v>
-      </c>
-      <c r="U56" s="29">
-        <v>0</v>
-      </c>
-      <c r="V56" s="29">
-        <v>0</v>
-      </c>
-      <c r="W56" s="29">
-        <v>0</v>
-      </c>
-      <c r="X56" s="29">
-        <v>0</v>
-      </c>
-      <c r="Y56" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z56" s="29">
-        <v>0</v>
-      </c>
-      <c r="AA56" s="29">
-        <v>0</v>
-      </c>
-      <c r="AB56" s="29">
+      <c r="R56" s="1">
+        <v>0</v>
+      </c>
+      <c r="S56" s="1">
+        <v>0</v>
+      </c>
+      <c r="T56" s="1">
+        <v>0</v>
+      </c>
+      <c r="U56" s="1">
+        <v>0</v>
+      </c>
+      <c r="V56" s="1">
+        <v>0</v>
+      </c>
+      <c r="W56" s="1">
+        <v>0</v>
+      </c>
+      <c r="X56" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="1">
         <v>0</v>
       </c>
       <c r="AC56" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ok</v>
-      </c>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
+        <f>IF(COUNTIF(C:C,C57) &gt;1,"중복","ok")</f>
+        <v>ok</v>
+      </c>
+      <c r="B57" s="1">
+        <v>55</v>
+      </c>
+      <c r="C57" s="29">
+        <v>36004</v>
+      </c>
+      <c r="D57" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="E57" s="29">
+        <v>3</v>
+      </c>
+      <c r="F57" s="29">
+        <v>99</v>
+      </c>
+      <c r="G57" s="29">
+        <v>0</v>
+      </c>
+      <c r="H57" s="29">
+        <v>1</v>
+      </c>
+      <c r="I57" s="29">
+        <v>0</v>
+      </c>
+      <c r="J57" s="29">
+        <v>0</v>
+      </c>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29">
+        <v>0</v>
+      </c>
+      <c r="M57" s="29">
+        <v>100</v>
+      </c>
+      <c r="N57" s="29">
+        <v>100</v>
+      </c>
+      <c r="O57" s="29">
+        <v>0</v>
+      </c>
+      <c r="P57" s="29">
+        <v>100</v>
+      </c>
+      <c r="Q57" s="29">
+        <v>50</v>
+      </c>
+      <c r="R57" s="29">
+        <v>0</v>
+      </c>
+      <c r="S57" s="29">
+        <v>0</v>
+      </c>
+      <c r="T57" s="29">
+        <v>0</v>
+      </c>
+      <c r="U57" s="29">
+        <v>0</v>
+      </c>
+      <c r="V57" s="29">
+        <v>0</v>
+      </c>
+      <c r="W57" s="29">
+        <v>0</v>
+      </c>
+      <c r="X57" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ok</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
+        <f>IF(COUNTIF(C:C,C58) &gt;1,"중복","ok")</f>
+        <v>ok</v>
+      </c>
+      <c r="B58" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ok</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
+        <f>IF(COUNTIF(C:C,C59) &gt;1,"중복","ok")</f>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ok</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
+        <f>IF(COUNTIF(C:C,C60) &gt;1,"중복","ok")</f>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>ok</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
+        <f>IF(COUNTIF(C:C,C61) &gt;1,"중복","ok")</f>
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(C:C,C62) &gt;1,"중복","ok")</f>
         <v>ok</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E3:W23 E27:W27 Y27:Z27 Y3:Z23 AB3:AC23 AB27:AC47 Y57:Z66 E57:W66 E28:U47 E54:U56 AB54:AC66">
+  <conditionalFormatting sqref="AA27:AB27 AA3:AB23 AD3:AE23 AD27:AE47 AA56:AB56 E3:Y27 E56:Y56 E58:Y66 AD58:AE66 AA58:AB66 AD54:AE56 E28:W53 E54:AC55 E57:AE57">
     <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24:W26 Y24:Z26 AB24:AC26">
+  <conditionalFormatting sqref="AA24:AB26 AD24:AE26">
     <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X3:X23 X27 X57:X66">
+  <conditionalFormatting sqref="Z3:Z23 Z27 Z56 Z58:Z66">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X24:X26">
+  <conditionalFormatting sqref="Z24:Z26">
     <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA27 AA3:AA23 AA57:AA66">
+  <conditionalFormatting sqref="AC27 AC3:AC23 AC56 AC58:AC66">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA24:AA26">
+  <conditionalFormatting sqref="AC24:AC26">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V28:W47 Y28:Z47 Y54:Z56 V54:W56">
+  <conditionalFormatting sqref="X28:Y47 AA28:AB47">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X28:X47 X54:X56">
+  <conditionalFormatting sqref="Z28:Z47">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA28:AA47 AA54:AA56">
+  <conditionalFormatting sqref="AC28:AC47">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB48:AC53 E48:U53">
+  <conditionalFormatting sqref="AD48:AE53">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V48:W53 Y48:Z53">
+  <conditionalFormatting sqref="X48:Y53 AA48:AB53">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X48:X53">
+  <conditionalFormatting sqref="Z48:Z53">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA48:AA53">
+  <conditionalFormatting sqref="AC48:AC53">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10454,28 +10894,28 @@
     <row r="2" spans="2:10" s="13" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B2" s="15"/>
       <c r="C2" s="21" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D2" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>186</v>
-      </c>
       <c r="H2" s="22" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
@@ -10483,28 +10923,28 @@
         <v>35</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
@@ -10515,22 +10955,22 @@
         <v>1010</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F4" s="24">
         <v>50</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H4" s="24">
         <v>30</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J4" s="25">
         <v>20</v>
@@ -10544,22 +10984,22 @@
         <v>1020</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F5" s="14">
         <v>50</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H5" s="14">
         <v>30</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J5" s="17">
         <v>20</v>
@@ -10573,22 +11013,22 @@
         <v>1030</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F6" s="14">
         <v>50</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H6" s="14">
         <v>30</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J6" s="17">
         <v>20</v>
@@ -10602,22 +11042,22 @@
         <v>2010</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F7" s="14">
         <v>100</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H7" s="14">
         <v>0</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J7" s="17">
         <v>0</v>
@@ -10631,22 +11071,22 @@
         <v>2020</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F8" s="14">
         <v>60</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H8" s="14">
         <v>30</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J8" s="17">
         <v>10</v>
@@ -10660,22 +11100,22 @@
         <v>2030</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F9" s="14">
         <v>40</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H9" s="14">
         <v>40</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J9" s="17">
         <v>20</v>
@@ -10689,22 +11129,22 @@
         <v>3010</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F10" s="14">
         <v>50</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H10" s="14">
         <v>30</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J10" s="17">
         <v>20</v>
@@ -10718,22 +11158,22 @@
         <v>3020</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F11" s="14">
         <v>50</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H11" s="14">
         <v>30</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J11" s="17">
         <v>20</v>
@@ -10747,22 +11187,22 @@
         <v>3030</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F12" s="14">
         <v>50</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H12" s="14">
         <v>30</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J12" s="17">
         <v>20</v>
@@ -10776,22 +11216,22 @@
         <v>4010</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F13" s="14">
         <v>100</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H13" s="14">
         <v>0</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J13" s="17">
         <v>0</v>
@@ -10805,22 +11245,22 @@
         <v>4020</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F14" s="14">
         <v>60</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H14" s="14">
         <v>30</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J14" s="17">
         <v>10</v>
@@ -10834,22 +11274,22 @@
         <v>4030</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F15" s="14">
         <v>40</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H15" s="14">
         <v>40</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J15" s="17">
         <v>20</v>
@@ -10863,22 +11303,22 @@
         <v>5010</v>
       </c>
       <c r="D16" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>271</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>274</v>
       </c>
       <c r="F16" s="14">
         <v>100</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H16" s="14">
         <v>0</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J16" s="17">
         <v>0</v>
@@ -10892,22 +11332,22 @@
         <v>5020</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F17" s="14">
         <v>60</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H17" s="14">
         <v>30</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J17" s="17">
         <v>10</v>
@@ -10921,22 +11361,22 @@
         <v>5030</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F18" s="19">
         <v>40</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H18" s="19">
         <v>40</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J18" s="20">
         <v>20</v>
@@ -10953,7 +11393,7 @@
   <dimension ref="B1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -10975,31 +11415,31 @@
     <row r="2" spans="2:11" s="13" customFormat="1" ht="84" x14ac:dyDescent="0.3">
       <c r="B2" s="15"/>
       <c r="C2" s="21" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K2" s="23" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
@@ -11007,31 +11447,31 @@
         <v>35</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K3" s="27" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
@@ -11042,19 +11482,19 @@
         <v>1010</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F4" s="24">
         <v>5</v>
       </c>
-      <c r="G4" s="14">
-        <v>0</v>
+      <c r="G4" s="14" t="s">
+        <v>387</v>
       </c>
       <c r="H4" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="14">
         <v>0</v>
@@ -11062,8 +11502,8 @@
       <c r="J4" s="25">
         <v>0</v>
       </c>
-      <c r="K4" s="25">
-        <v>0</v>
+      <c r="K4" s="25" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
@@ -11074,16 +11514,16 @@
         <v>1020</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F5" s="14">
         <v>1</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H5" s="14">
         <v>2</v>
@@ -11094,8 +11534,8 @@
       <c r="J5" s="17">
         <v>0</v>
       </c>
-      <c r="K5" s="17">
-        <v>0</v>
+      <c r="K5" s="17" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
@@ -11106,28 +11546,28 @@
         <v>1030</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F6" s="14">
         <v>1</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H6" s="14">
         <v>30</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J6" s="17">
         <v>5</v>
       </c>
-      <c r="K6" s="17">
-        <v>5</v>
+      <c r="K6" s="17" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
@@ -11138,28 +11578,28 @@
         <v>2010</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F7" s="14">
         <v>2</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H7" s="14">
         <v>1</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="J7" s="17">
         <v>1</v>
       </c>
-      <c r="K7" s="17">
-        <v>1</v>
+      <c r="K7" s="17" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
@@ -11170,16 +11610,16 @@
         <v>2020</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F8" s="14">
         <v>2</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H8" s="14">
         <v>2</v>
@@ -11190,8 +11630,8 @@
       <c r="J8" s="17">
         <v>0</v>
       </c>
-      <c r="K8" s="17">
-        <v>0</v>
+      <c r="K8" s="17" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
@@ -11202,22 +11642,22 @@
         <v>2030</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F9" s="14">
         <v>10</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H9" s="14">
         <v>5</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J9" s="17">
         <v>5</v>
@@ -11234,16 +11674,16 @@
         <v>3010</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F10" s="14">
         <v>10</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H10" s="14">
         <v>1</v>
@@ -11266,16 +11706,16 @@
         <v>3020</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F11" s="14">
         <v>5</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H11" s="14">
         <v>10</v>
@@ -11298,22 +11738,22 @@
         <v>3030</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F12" s="14">
         <v>10</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H12" s="14">
         <v>10</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="J12" s="17">
         <v>20</v>
@@ -11330,22 +11770,22 @@
         <v>4010</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F13" s="14">
         <v>10</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H13" s="14">
         <v>5</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J13" s="17">
         <v>0</v>
@@ -11362,22 +11802,22 @@
         <v>4020</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F14" s="14">
         <v>10</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H14" s="14">
         <v>5</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J14" s="17">
         <v>10</v>
@@ -11394,22 +11834,22 @@
         <v>4030</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F15" s="19">
         <v>10</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H15" s="19">
         <v>5</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J15" s="20">
         <v>20</v>
